--- a/Detailed Results.xlsx
+++ b/Detailed Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karsten/workspaces/me/services/better-projects-faster/talks/bpf-talks-openj9-memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8649913-B1E1-1F4B-923F-F3FF84929239}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2108C54-6865-3F41-B96B-6EE0DDBF3084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1280" yWindow="-20640" windowWidth="28040" windowHeight="17440" xr2:uid="{B50527CB-A149-684C-BBEB-1D1B1B3742E6}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Detailed Results.xlsx
+++ b/Detailed Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karsten/workspaces/me/services/better-projects-faster/talks/bpf-talks-openj9-memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70FB806-A922-E54B-AEF3-A029267932B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7563B6EC-7C38-3947-ADA6-AB820056CF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1280" yWindow="-20640" windowWidth="28040" windowHeight="17440" xr2:uid="{B50527CB-A149-684C-BBEB-1D1B1B3742E6}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Detailed Results.xlsx
+++ b/Detailed Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karsten/workspaces/me/services/better-projects-faster/talks/bpf-talks-openj9-memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C45D71B-7644-644C-BFE9-22E46839F2C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A9CB58-5F60-4E4F-BDC3-F88C960D572E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="25600" windowHeight="32000" activeTab="4" xr2:uid="{B50527CB-A149-684C-BBEB-1D1B1B3742E6}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="25600" windowHeight="32000" xr2:uid="{B50527CB-A149-684C-BBEB-1D1B1B3742E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark Runs" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179BBD7D-14A8-1344-B0FE-24E8D6D20A48}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -35518,8 +35518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4C0E3F-06D6-A946-9C95-B05AA04737DA}">
   <dimension ref="A1:D759"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A705" workbookViewId="0">
-      <selection activeCell="E764" sqref="E764"/>
+    <sheetView topLeftCell="A705" workbookViewId="0">
+      <selection activeCell="E760" sqref="E760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Detailed Results.xlsx
+++ b/Detailed Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karsten/workspaces/me/services/better-projects-faster/talks/bpf-talks-openj9-memory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992C3E19-A16D-5A4D-B5EC-326D4B08FE1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8726DCD4-D018-BE43-85FF-45FE1FF6DBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="-20220" windowWidth="26620" windowHeight="19040" activeTab="1" xr2:uid="{B50527CB-A149-684C-BBEB-1D1B1B3742E6}"/>
+    <workbookView xWindow="4140" yWindow="-19220" windowWidth="26620" windowHeight="19040" xr2:uid="{B50527CB-A149-684C-BBEB-1D1B1B3742E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark Runs" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3632" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3633" uniqueCount="29">
   <si>
     <t>JVM</t>
   </si>
@@ -170,6 +170,9 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>CPU Time in Seconds</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,13 +245,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -288,17 +293,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6CDBF72-CA4F-E249-96F3-2BD92819780D}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
-  <autoFilter ref="A1:D5" xr:uid="{F88EC5A2-CC1D-FF48-AA9E-FB7F24F6E619}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6CDBF72-CA4F-E249-96F3-2BD92819780D}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{F88EC5A2-CC1D-FF48-AA9E-FB7F24F6E619}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D9A13965-E854-9E49-98FF-6F51E7E11212}" name="JVM"/>
-    <tableColumn id="2" xr3:uid="{86AA4F0B-35DC-754B-9CA2-2B386CCAAB30}" name="CPU total" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{276D584C-5D32-0240-8D58-49AA314ABE51}" name="Avg. Memory Usage" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{86AA4F0B-35DC-754B-9CA2-2B386CCAAB30}" name="CPU total" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{AC5F9C47-B6D5-5946-B5A1-14091CE7BEAF}" name="CPU Time in Seconds" dataDxfId="0">
+      <calculatedColumnFormula>8*60+4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{276D584C-5D32-0240-8D58-49AA314ABE51}" name="Avg. Memory Usage" dataDxfId="2">
       <calculatedColumnFormula>'Benchmark OpenJ9 11'!B964</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D0862929-CA8D-3B4A-9DAD-AEACB8155007}" name="Avg. CPU Utilization" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{D0862929-CA8D-3B4A-9DAD-AEACB8155007}" name="Avg. CPU Utilization" dataDxfId="1">
       <calculatedColumnFormula>'Benchmark OpenJ9 11'!C964</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{80CF121A-3102-5746-BF8B-6EA352AB6F50}" name="Table2" displayName="Table2" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{C837975A-39E7-7A49-9E09-9DBE585F8583}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{44CB043D-37E4-2F49-99CD-4163765D1D7B}" name="Run"/>
+    <tableColumn id="2" xr3:uid="{3374A11C-442B-1D45-874F-D8893A84ED47}" name="Metric"/>
+    <tableColumn id="3" xr3:uid="{234FA680-67A6-6D44-B417-AB9DE47D41B1}" name="OpenJ9 11"/>
+    <tableColumn id="4" xr3:uid="{DC958948-5575-4B44-B9EA-35AC33E9D0A8}" name="OpenJ9 8"/>
+    <tableColumn id="5" xr3:uid="{972855A4-EBED-484E-88FA-2AA5AF12FB41}" name="HotSpot 11"/>
+    <tableColumn id="6" xr3:uid="{D574E546-A50B-E440-9BBA-6A7A6ADAC47F}" name="HotSpot 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,21 +624,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179BBD7D-14A8-1344-B0FE-24E8D6D20A48}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,13 +647,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -637,15 +664,19 @@
         <v>15</v>
       </c>
       <c r="C2" s="7">
+        <f t="shared" ref="C2:C5" si="0">8*60+4</f>
+        <v>484</v>
+      </c>
+      <c r="D2" s="7">
         <f>'Benchmark OpenJ9 11'!B964</f>
         <v>636.45752009184832</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <f>'Benchmark OpenJ9 11'!C964</f>
         <v>1.8708176808266306</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -653,15 +684,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="7">
+        <f>7*60+51</f>
+        <v>471</v>
+      </c>
+      <c r="D3" s="7">
         <f>'Benchmark OpenJ9 8'!B940</f>
         <v>594.82460554371028</v>
       </c>
-      <c r="D3" s="9">
+      <c r="E3" s="9">
         <f>'Benchmark OpenJ9 8'!C940</f>
         <v>1.8696909381663136</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -669,15 +704,19 @@
         <v>14</v>
       </c>
       <c r="C4" s="7">
+        <f>7*60+42</f>
+        <v>462</v>
+      </c>
+      <c r="D4" s="7">
         <f>'Benchmark HotSpot 11'!D922</f>
         <v>1184.6915869565219</v>
       </c>
-      <c r="D4" s="9">
+      <c r="E4" s="9">
         <f>'Benchmark HotSpot 11'!C922</f>
         <v>1.8602152173913045</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -685,10 +724,14 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <f>6*60+21</f>
+        <v>381</v>
+      </c>
+      <c r="D5" s="7">
         <f>'Benchmark HotSpot 8'!D759</f>
         <v>1062.2033817701454</v>
       </c>
-      <c r="D5" s="11">
+      <c r="E5" s="11">
         <f>'Benchmark HotSpot 8'!C759</f>
         <v>1.798613870541611</v>
       </c>
@@ -697,6 +740,9 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:C5 D3:D5 E3:E5" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -707,16 +753,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE7C126-4E3A-884F-B842-A6A389520CB9}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -752,6 +800,9 @@
       <c r="D2">
         <v>16.100000000000001</v>
       </c>
+      <c r="E2">
+        <v>19.399999999999999</v>
+      </c>
       <c r="F2">
         <v>22.2</v>
       </c>
@@ -766,6 +817,9 @@
       <c r="D3">
         <v>201.7</v>
       </c>
+      <c r="E3">
+        <v>424.9</v>
+      </c>
       <c r="F3">
         <v>583.29999999999995</v>
       </c>
@@ -780,6 +834,9 @@
       <c r="D4">
         <v>419.7</v>
       </c>
+      <c r="E4">
+        <v>529.79999999999995</v>
+      </c>
       <c r="F4">
         <v>645.20000000000005</v>
       </c>
@@ -797,6 +854,9 @@
       <c r="D5">
         <v>16.5</v>
       </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
       <c r="F5">
         <v>22.7</v>
       </c>
@@ -811,6 +871,9 @@
       <c r="D6">
         <v>210.7</v>
       </c>
+      <c r="E6">
+        <v>449.9</v>
+      </c>
       <c r="F6">
         <v>579.20000000000005</v>
       </c>
@@ -825,6 +888,9 @@
       <c r="D7">
         <v>440.6</v>
       </c>
+      <c r="E7">
+        <v>558.6</v>
+      </c>
       <c r="F7">
         <v>667.8</v>
       </c>
@@ -842,6 +908,9 @@
       <c r="D8">
         <v>15.2</v>
       </c>
+      <c r="E8">
+        <v>19.399999999999999</v>
+      </c>
       <c r="F8">
         <v>22.8</v>
       </c>
@@ -856,6 +925,9 @@
       <c r="D9">
         <v>207.4</v>
       </c>
+      <c r="E9">
+        <v>394.1</v>
+      </c>
       <c r="F9">
         <v>572.4</v>
       </c>
@@ -870,6 +942,9 @@
       <c r="D10">
         <v>423.2</v>
       </c>
+      <c r="E10">
+        <v>505.8</v>
+      </c>
       <c r="F10">
         <v>622.5</v>
       </c>
@@ -881,15 +956,19 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f>AVERAGE(C5,C2,C8)</f>
         <v>17.200000000000003</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="4">
         <f>AVERAGE(D5,D2,D8)</f>
         <v>15.933333333333332</v>
       </c>
-      <c r="F11" s="12">
+      <c r="E11" s="4">
+        <f>AVERAGE(E5,E2,E8)</f>
+        <v>19.266666666666666</v>
+      </c>
+      <c r="F11" s="4">
         <f>AVERAGE(F5,F2,F8)</f>
         <v>22.566666666666666</v>
       </c>
@@ -898,15 +977,19 @@
       <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <f>AVERAGE(C6,C3,C9)</f>
         <v>205.96666666666667</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <f>AVERAGE(D6,D3,D9)</f>
         <v>206.6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="E12" s="5">
+        <f>AVERAGE(E6,E3,E9)</f>
+        <v>422.9666666666667</v>
+      </c>
+      <c r="F12" s="5">
         <f>AVERAGE(F6,F3,F9)</f>
         <v>578.30000000000007</v>
       </c>
@@ -915,15 +998,19 @@
       <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <f>AVERAGE(C7,C4,C10)</f>
         <v>433.59999999999997</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <f>AVERAGE(D7,D4,D10)</f>
         <v>427.83333333333331</v>
       </c>
-      <c r="F13" s="7">
+      <c r="E13" s="5">
+        <f>AVERAGE(E7,E4,E10)</f>
+        <v>531.4</v>
+      </c>
+      <c r="F13" s="5">
         <f>AVERAGE(F7,F4,F10)</f>
         <v>645.16666666666663</v>
       </c>
@@ -931,6 +1018,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -939,7 +1029,7 @@
   <dimension ref="A1:C964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A857" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A936" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="W885" sqref="W885"/>
     </sheetView>
   </sheetViews>
@@ -11564,7 +11654,7 @@
   <dimension ref="A1:C940"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A911" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21924,7 +22014,7 @@
   <dimension ref="A1:D922"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A918" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
@@ -35770,8 +35860,8 @@
   <dimension ref="A1:D759"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A733" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F733" sqref="F733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
